--- a/megait/D. 탐색적 데이터 분석/05. 데이터 시각화/(1) Matplotlib/res/jobs_by_scale.xlsx
+++ b/megait/D. 탐색적 데이터 분석/05. 데이터 시각화/(1) Matplotlib/res/jobs_by_scale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,159 +434,132 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>종사자규모별</t>
         </is>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>2015</v>
+      </c>
       <c r="C1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D1" s="1" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>1~4명</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>553.5</v>
+      </c>
       <c r="C2" t="n">
-        <v>553.5</v>
-      </c>
-      <c r="D2" t="n">
         <v>576.7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>5~9명</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>211.6</v>
+      </c>
       <c r="C3" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="D3" t="n">
         <v>216.8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>10~29명</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>194.7</v>
+      </c>
       <c r="C4" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="D4" t="n">
         <v>195.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>30~49명</t>
         </is>
+      </c>
+      <c r="B5" t="n">
+        <v>227.4</v>
       </c>
       <c r="C5" t="n">
         <v>227.4</v>
       </c>
-      <c r="D5" t="n">
-        <v>227.4</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>50~99명</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>152.8</v>
+      </c>
       <c r="C6" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="D6" t="n">
         <v>155.7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>100~199명</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>221.9</v>
+      </c>
       <c r="C7" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="D7" t="n">
         <v>220.6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>200~299명</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="C8" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="D8" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>300~999명</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>100.5</v>
+      </c>
       <c r="C9" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="D9" t="n">
         <v>99.3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1000명 이상</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>557.6</v>
+      </c>
       <c r="C10" t="n">
-        <v>557.6</v>
-      </c>
-      <c r="D10" t="n">
         <v>549.7</v>
       </c>
     </row>
